--- a/USHPRR/UMo_rad_dam_old.xlsx
+++ b/USHPRR/UMo_rad_dam_old.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30DA0E7C-EC30-754E-95D1-1452BF93CB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A497D5-9079-5047-9BC5-A7B25348BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="3020" windowWidth="27640" windowHeight="16940" activeTab="4" xr2:uid="{915DBFD3-0428-B849-9115-826488AD15AE}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="2" xr2:uid="{915DBFD3-0428-B849-9115-826488AD15AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="8kevB" sheetId="4" r:id="rId4"/>
     <sheet name="summary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -13354,8 +13354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317F667-02DB-8543-AB41-C75109ED5A80}">
   <dimension ref="B1:AC72"/>
   <sheetViews>
-    <sheetView topLeftCell="L5" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15315,7 +15315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47550E95-1A3E-F243-8E70-2F6063D764E5}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -15899,7 +15899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF47B9D-95E1-4941-8EEE-42C91F664313}">
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
